--- a/Assets/Table/ForceUnitTable.xlsx
+++ b/Assets/Table/ForceUnitTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruen\Desktop\Projects\DefenceGame\Assets\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruen\Desktop\Projects\4PointDefence\4PointDefence\Assets\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4646A1-375C-44F1-B99B-6DB9E8606FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A259760-F9AD-41ED-8AC0-F99BD6FFFFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="4635" windowWidth="22590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,10 @@
   </si>
   <si>
     <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,63 +456,63 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>70</v>
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
